--- a/data/Archive/beermap.xlsx
+++ b/data/Archive/beermap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="0" windowWidth="19400" windowHeight="13300" tabRatio="500"/>
+    <workbookView xWindow="11560" yWindow="0" windowWidth="17000" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Big Style List" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5216" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="1060">
   <si>
     <t>Color</t>
   </si>
@@ -3188,6 +3188,24 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>BreweryDB id</t>
+  </si>
+  <si>
+    <t>94/95</t>
+  </si>
+  <si>
+    <t>81/102?</t>
+  </si>
+  <si>
+    <t>14 or 15</t>
+  </si>
+  <si>
+    <t>43/16</t>
+  </si>
+  <si>
+    <t>115/116</t>
   </si>
 </sst>
 </file>
@@ -3410,8 +3428,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1389">
+  <cellStyleXfs count="1393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4933,7 +4955,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1389">
+  <cellStyles count="1393">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5628,6 +5650,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6322,6 +6346,8 @@
     <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6651,45 +6677,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="16"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40" customHeight="1" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="40" customHeight="1" thickBot="1">
+      <c r="A1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="39" t="s">
         <v>349</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>321</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>321</v>
@@ -6700,2815 +6726,3004 @@
       <c r="L1" s="21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="7" t="s">
+      <c r="M1" s="21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="33">
+      <c r="F3" s="33">
         <v>8</v>
       </c>
-      <c r="F3" s="33">
+      <c r="G3" s="33">
         <v>12</v>
       </c>
-      <c r="G3" s="33">
+      <c r="H3" s="33">
         <v>2</v>
       </c>
-      <c r="H3" s="34">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I3" s="34">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
         <v>322</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>323</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>336</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>93</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="33">
+      <c r="F4" s="33">
         <v>8</v>
       </c>
-      <c r="F4" s="29">
+      <c r="G4" s="29">
         <v>15</v>
       </c>
-      <c r="G4" s="33">
+      <c r="H4" s="33">
         <v>2</v>
       </c>
-      <c r="H4" s="34">
+      <c r="I4" s="34">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>325</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>322</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>97</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>1034</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="33">
+      <c r="F5" s="33">
         <v>15</v>
       </c>
-      <c r="F5" s="33">
+      <c r="G5" s="33">
         <v>25</v>
       </c>
-      <c r="G5" s="33">
+      <c r="H5" s="33">
         <v>2</v>
       </c>
-      <c r="H5" s="34">
+      <c r="I5" s="34">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>325</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>322</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>336</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>78</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>1035</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="33">
+      <c r="F6" s="33">
         <v>16</v>
       </c>
-      <c r="F6" s="33">
+      <c r="G6" s="33">
         <v>22</v>
       </c>
-      <c r="G6" s="33">
-        <v>3</v>
-      </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
+        <v>3</v>
+      </c>
+      <c r="I6" s="34">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>119</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>79</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>1036</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="35">
+      <c r="F7" s="35">
         <v>23</v>
       </c>
-      <c r="F7" s="35">
+      <c r="G7" s="35">
         <v>30</v>
       </c>
-      <c r="G7" s="35">
+      <c r="H7" s="35">
         <v>4</v>
       </c>
-      <c r="H7" s="34">
+      <c r="I7" s="34">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>328</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>119</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:13">
+      <c r="B8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="30"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="9" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>75</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="33">
+      <c r="F9" s="33">
         <v>25</v>
       </c>
-      <c r="F9" s="33">
+      <c r="G9" s="33">
         <v>45</v>
       </c>
-      <c r="G9" s="33">
+      <c r="H9" s="33">
         <v>2</v>
       </c>
-      <c r="H9" s="34">
+      <c r="I9" s="34">
         <v>5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>329</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>114</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>87</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>76</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="E10" s="33">
-        <v>35</v>
       </c>
       <c r="F10" s="33">
         <v>35</v>
       </c>
       <c r="G10" s="33">
+        <v>35</v>
+      </c>
+      <c r="H10" s="33">
         <v>3.5</v>
       </c>
-      <c r="H10" s="34">
+      <c r="I10" s="34">
         <v>6</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>138</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>114</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>119</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>999</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="35">
+      <c r="F11" s="35">
         <v>25</v>
       </c>
-      <c r="F11" s="35">
+      <c r="G11" s="35">
         <v>40</v>
       </c>
-      <c r="G11" s="35">
-        <v>3</v>
-      </c>
-      <c r="H11" s="34">
+      <c r="H11" s="35">
+        <v>3</v>
+      </c>
+      <c r="I11" s="34">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>119</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>114</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:13">
+      <c r="B12" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="9" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>80</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="33">
+      <c r="F13" s="33">
         <v>18</v>
       </c>
-      <c r="F13" s="33">
+      <c r="G13" s="33">
         <v>30</v>
       </c>
-      <c r="G13" s="33">
+      <c r="H13" s="33">
         <v>10</v>
       </c>
-      <c r="H13" s="34">
+      <c r="I13" s="34">
         <v>16</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>335</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>119</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>1001</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="35">
+      <c r="F14" s="35">
         <v>20</v>
       </c>
-      <c r="F14" s="35">
+      <c r="G14" s="35">
         <v>28</v>
       </c>
-      <c r="G14" s="35">
+      <c r="H14" s="35">
         <v>7</v>
       </c>
-      <c r="H14" s="34">
+      <c r="I14" s="34">
         <v>14</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>119</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>332</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:13">
+      <c r="B15" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>103</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E16" s="33">
+      <c r="F16" s="33">
         <v>8</v>
       </c>
-      <c r="F16" s="33">
+      <c r="G16" s="33">
         <v>20</v>
       </c>
-      <c r="G16" s="33">
+      <c r="H16" s="33">
         <v>14</v>
       </c>
-      <c r="H16" s="34">
+      <c r="I16" s="34">
         <v>22</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>107</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>124</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>344</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>83</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>1003</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E17" s="33">
+      <c r="F17" s="33">
         <v>18</v>
       </c>
-      <c r="F17" s="33">
+      <c r="G17" s="33">
         <v>28</v>
       </c>
-      <c r="G17" s="33">
+      <c r="H17" s="33">
         <v>14</v>
       </c>
-      <c r="H17" s="34">
+      <c r="I17" s="34">
         <v>28</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>121</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>331</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>107</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>84</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="35">
+      <c r="F18" s="35">
         <v>22</v>
       </c>
-      <c r="F18" s="35">
+      <c r="G18" s="35">
         <v>32</v>
       </c>
-      <c r="G18" s="35">
+      <c r="H18" s="35">
         <v>17</v>
       </c>
-      <c r="H18" s="34">
+      <c r="I18" s="34">
         <v>30</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>333</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>87</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>114</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:13">
+      <c r="B19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="9" t="s">
+      <c r="G19" s="29"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>89</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>1038</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="33">
+      <c r="F20" s="33">
         <v>23</v>
       </c>
-      <c r="F20" s="33">
+      <c r="G20" s="33">
         <v>35</v>
       </c>
-      <c r="G20" s="33">
+      <c r="H20" s="33">
         <v>6</v>
       </c>
-      <c r="H20" s="34">
+      <c r="I20" s="34">
         <v>11</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>335</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>138</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>334</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>88</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>1004</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E21" s="33">
+      <c r="F21" s="33">
         <v>20</v>
       </c>
-      <c r="F21" s="33">
+      <c r="G21" s="33">
         <v>27</v>
       </c>
-      <c r="G21" s="33">
+      <c r="H21" s="33">
         <v>14</v>
       </c>
-      <c r="H21" s="34">
+      <c r="I21" s="34">
         <v>22</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>335</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>107</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>90</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="E22" s="33">
+      <c r="F22" s="33">
         <v>16</v>
       </c>
-      <c r="F22" s="33">
+      <c r="G22" s="33">
         <v>26</v>
       </c>
-      <c r="G22" s="33">
+      <c r="H22" s="33">
         <v>6</v>
       </c>
-      <c r="H22" s="34">
+      <c r="I22" s="34">
         <v>25</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>335</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>130</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>333</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>91</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="E23" s="35">
+      <c r="F23" s="35">
         <v>22</v>
       </c>
-      <c r="F23" s="35">
+      <c r="G23" s="35">
         <v>35</v>
       </c>
-      <c r="G23" s="35">
+      <c r="H23" s="35">
         <v>18</v>
       </c>
-      <c r="H23" s="34">
+      <c r="I23" s="34">
         <v>30</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>119</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>107</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>130</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:13">
+      <c r="B24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="29"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="29"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="9" t="s">
+      <c r="G24" s="29"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>109</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="D25" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="E25" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="E25" s="33">
+      <c r="F25" s="33">
         <v>15</v>
       </c>
-      <c r="F25" s="33">
+      <c r="G25" s="33">
         <v>20</v>
       </c>
-      <c r="G25" s="33">
+      <c r="H25" s="33">
         <v>2.5</v>
       </c>
-      <c r="H25" s="34">
+      <c r="I25" s="34">
         <v>5</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>336</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>87</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>36</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="C26" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="D26" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E26" s="33">
+      <c r="F26" s="33">
         <v>15</v>
       </c>
-      <c r="F26" s="33">
+      <c r="G26" s="33">
         <v>28</v>
       </c>
-      <c r="G26" s="33">
-        <v>3</v>
-      </c>
-      <c r="H26" s="34">
+      <c r="H26" s="33">
+        <v>3</v>
+      </c>
+      <c r="I26" s="34">
         <v>6</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>331</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>87</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>45</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="D27" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E27" s="33">
+      <c r="F27" s="33">
         <v>20</v>
       </c>
-      <c r="F27" s="33">
+      <c r="G27" s="33">
         <v>30</v>
       </c>
-      <c r="G27" s="33">
+      <c r="H27" s="33">
         <v>3.5</v>
       </c>
-      <c r="H27" s="34">
+      <c r="I27" s="34">
         <v>5</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>87</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>328</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>119</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" thickBot="1">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:13" ht="16" thickBot="1">
+      <c r="A28" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>1006</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="D28" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="36">
+      <c r="F28" s="36">
         <v>15</v>
       </c>
-      <c r="F28" s="36">
+      <c r="G28" s="36">
         <v>30</v>
       </c>
-      <c r="G28" s="36">
-        <v>3</v>
-      </c>
-      <c r="H28" s="34">
+      <c r="H28" s="36">
+        <v>3</v>
+      </c>
+      <c r="I28" s="34">
         <v>6</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>338</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>138</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>91</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:13">
+      <c r="B29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="29"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="29"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="30"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="9" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="9" t="s">
         <v>1007</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="33">
+      <c r="F30" s="33">
         <v>25</v>
       </c>
-      <c r="F30" s="33">
+      <c r="G30" s="33">
         <v>40</v>
       </c>
-      <c r="G30" s="33">
+      <c r="H30" s="33">
         <v>13</v>
       </c>
-      <c r="H30" s="34">
+      <c r="I30" s="34">
         <v>19</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>107</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>330</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>322</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>110</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="33">
+      <c r="F31" s="33">
         <v>30</v>
       </c>
-      <c r="F31" s="33">
+      <c r="G31" s="33">
         <v>45</v>
       </c>
-      <c r="G31" s="33">
+      <c r="H31" s="33">
         <v>10</v>
       </c>
-      <c r="H31" s="34">
+      <c r="I31" s="34">
         <v>14</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>114</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>331</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>339</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>55</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>1009</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="35">
+      <c r="F32" s="35">
         <v>35</v>
       </c>
-      <c r="F32" s="35">
+      <c r="G32" s="35">
         <v>50</v>
       </c>
-      <c r="G32" s="35">
+      <c r="H32" s="35">
         <v>11</v>
       </c>
-      <c r="H32" s="34">
+      <c r="I32" s="34">
         <v>17</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>87</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>114</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>121</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:21">
+      <c r="B33" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="9" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="D34" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="E34" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="E34" s="33">
+      <c r="F34" s="33">
         <v>25</v>
       </c>
-      <c r="F34" s="33">
+      <c r="G34" s="33">
         <v>35</v>
       </c>
-      <c r="G34" s="33">
+      <c r="H34" s="33">
         <v>4</v>
       </c>
-      <c r="H34" s="34">
+      <c r="I34" s="34">
         <v>14</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>114</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>86</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>341</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:21">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="E35" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E35" s="33">
+      <c r="F35" s="33">
         <v>25</v>
       </c>
-      <c r="F35" s="33">
+      <c r="G35" s="33">
         <v>40</v>
       </c>
-      <c r="G35" s="33">
+      <c r="H35" s="33">
         <v>5</v>
       </c>
-      <c r="H35" s="34">
+      <c r="I35" s="34">
         <v>16</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>114</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>86</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>329</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:21">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>1012</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E36" s="35">
+      <c r="F36" s="35">
         <v>30</v>
       </c>
-      <c r="F36" s="35">
+      <c r="G36" s="35">
         <v>50</v>
       </c>
-      <c r="G36" s="35">
+      <c r="H36" s="35">
         <v>6</v>
       </c>
-      <c r="H36" s="34">
+      <c r="I36" s="34">
         <v>18</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>121</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>86</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>329</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>331</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>579</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>580</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>581</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>582</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>583</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>584</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>585</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:21">
+      <c r="B37" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B37" s="17"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="29"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="29"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="9" t="s">
+      <c r="G37" s="29"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="C38" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="D38" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="E38" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E38" s="33">
+      <c r="F38" s="33">
         <v>10</v>
       </c>
-      <c r="F38" s="33">
+      <c r="G38" s="33">
         <v>20</v>
       </c>
-      <c r="G38" s="33">
+      <c r="H38" s="33">
         <v>9</v>
       </c>
-      <c r="H38" s="34">
+      <c r="I38" s="34">
         <v>17</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>119</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>107</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>86</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="D39" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="E39" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="E39" s="33">
+      <c r="F39" s="33">
         <v>10</v>
       </c>
-      <c r="F39" s="33">
+      <c r="G39" s="33">
         <v>25</v>
       </c>
-      <c r="G39" s="33">
+      <c r="H39" s="33">
         <v>9</v>
       </c>
-      <c r="H39" s="34">
+      <c r="I39" s="34">
         <v>17</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>119</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>107</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>86</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>1015</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="D40" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="E40" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="E40" s="33">
+      <c r="F40" s="33">
         <v>15</v>
       </c>
-      <c r="F40" s="33">
+      <c r="G40" s="33">
         <v>30</v>
       </c>
-      <c r="G40" s="33">
+      <c r="H40" s="33">
         <v>9</v>
       </c>
-      <c r="H40" s="34">
+      <c r="I40" s="34">
         <v>17</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>119</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>107</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>86</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="D41" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E41" s="33">
+      <c r="F41" s="33">
         <v>17</v>
       </c>
-      <c r="F41" s="33">
+      <c r="G41" s="33">
         <v>28</v>
       </c>
-      <c r="G41" s="33">
+      <c r="H41" s="33">
         <v>9</v>
       </c>
-      <c r="H41" s="34">
+      <c r="I41" s="34">
         <v>18</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>107</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>342</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16" thickBot="1">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:21" ht="16" thickBot="1">
+      <c r="A42" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>1016</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="D42" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="36">
+      <c r="F42" s="36">
         <v>17</v>
       </c>
-      <c r="F42" s="36">
+      <c r="G42" s="36">
         <v>35</v>
       </c>
-      <c r="G42" s="36">
+      <c r="H42" s="36">
         <v>14</v>
       </c>
-      <c r="H42" s="34">
+      <c r="I42" s="34">
         <v>25</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>107</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>343</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>121</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:21">
+      <c r="B43" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B43" s="17"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="29"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="29"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="30"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="9" t="s">
+      <c r="G43" s="29"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>25</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="D44" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="E44" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E44" s="33">
+      <c r="F44" s="33">
         <v>30</v>
       </c>
-      <c r="F44" s="33">
+      <c r="G44" s="33">
         <v>45</v>
       </c>
-      <c r="G44" s="33">
+      <c r="H44" s="33">
         <v>5</v>
       </c>
-      <c r="H44" s="34">
+      <c r="I44" s="34">
         <v>14</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>87</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>91</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="C45" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="D45" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="E45" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E45" s="33">
+      <c r="F45" s="33">
         <v>25</v>
       </c>
-      <c r="F45" s="33">
+      <c r="G45" s="33">
         <v>40</v>
       </c>
-      <c r="G45" s="33">
+      <c r="H45" s="33">
         <v>10</v>
       </c>
-      <c r="H45" s="34">
+      <c r="I45" s="34">
         <v>17</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>87</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>91</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:21">
+      <c r="A46">
+        <v>37</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="E46" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="E46" s="35">
+      <c r="F46" s="35">
         <v>20</v>
       </c>
-      <c r="F46" s="35">
+      <c r="G46" s="35">
         <v>40</v>
       </c>
-      <c r="G46" s="35">
+      <c r="H46" s="35">
         <v>18</v>
       </c>
-      <c r="H46" s="34">
+      <c r="I46" s="34">
         <v>35</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>335</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>128</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>107</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:21">
+      <c r="B47" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B47" s="17"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="29"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
       <c r="F47" s="29"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="30"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="9" t="s">
+      <c r="G47" s="29"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="B48" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="C48" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="D48" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="E48" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="E48" s="33">
+      <c r="F48" s="33">
         <v>10</v>
       </c>
-      <c r="F48" s="33">
+      <c r="G48" s="33">
         <v>25</v>
       </c>
-      <c r="G48" s="33">
+      <c r="H48" s="33">
         <v>12</v>
       </c>
-      <c r="H48" s="34">
+      <c r="I48" s="34">
         <v>25</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>342</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>121</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>331</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:13">
+      <c r="B49" s="9" t="s">
         <v>1020</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="C49" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="D49" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="E49" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="E49" s="33">
+      <c r="F49" s="33">
         <v>12</v>
       </c>
-      <c r="F49" s="33">
+      <c r="G49" s="33">
         <v>20</v>
       </c>
-      <c r="G49" s="33">
+      <c r="H49" s="33">
         <v>19</v>
       </c>
-      <c r="H49" s="34">
+      <c r="I49" s="34">
         <v>35</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>107</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>342</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>124</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:13">
+      <c r="B50" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="D50" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="E50" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E50" s="35">
+      <c r="F50" s="35">
         <v>20</v>
       </c>
-      <c r="F50" s="35">
+      <c r="G50" s="35">
         <v>30</v>
       </c>
-      <c r="G50" s="35">
+      <c r="H50" s="35">
         <v>12</v>
       </c>
-      <c r="H50" s="34">
+      <c r="I50" s="34">
         <v>22</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>121</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:13">
+      <c r="B51" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="17"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="29"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="29"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="30"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="9" t="s">
+      <c r="G51" s="29"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="D52" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="E52" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="E52" s="33">
+      <c r="F52" s="33">
         <v>18</v>
       </c>
-      <c r="F52" s="33">
+      <c r="G52" s="33">
         <v>35</v>
       </c>
-      <c r="G52" s="33">
+      <c r="H52" s="33">
         <v>20</v>
       </c>
-      <c r="H52" s="34">
+      <c r="I52" s="34">
         <v>30</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>124</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>128</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>121</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>19</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="C53" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="D53" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="E53" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="E53" s="33">
+      <c r="F53" s="33">
         <v>25</v>
       </c>
-      <c r="F53" s="33">
+      <c r="G53" s="33">
         <v>50</v>
       </c>
-      <c r="G53" s="33">
+      <c r="H53" s="33">
         <v>22</v>
       </c>
-      <c r="H53" s="34">
+      <c r="I53" s="34">
         <v>35</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>128</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>124</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>114</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>104</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="E54" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="E54" s="35">
+      <c r="F54" s="35">
         <v>20</v>
       </c>
-      <c r="F54" s="35">
+      <c r="G54" s="35">
         <v>40</v>
       </c>
-      <c r="G54" s="35">
+      <c r="H54" s="35">
         <v>17</v>
       </c>
-      <c r="H54" s="34">
+      <c r="I54" s="34">
         <v>30</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>124</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>107</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>121</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:13">
+      <c r="B55" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B55" s="17"/>
       <c r="C55" s="17"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="29"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18"/>
       <c r="F55" s="29"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="30"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="9" t="s">
+      <c r="G55" s="29"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <v>23</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="C56" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="D56" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="E56" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="E56" s="33">
+      <c r="F56" s="33">
         <v>30</v>
       </c>
-      <c r="F56" s="33">
+      <c r="G56" s="33">
         <v>45</v>
       </c>
-      <c r="G56" s="33">
+      <c r="H56" s="33">
         <v>25</v>
       </c>
-      <c r="H56" s="34">
+      <c r="I56" s="34">
         <v>40</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>344</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>124</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>332</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:13">
+      <c r="A57">
+        <v>20</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="C57" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="E57" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E57" s="33">
+      <c r="F57" s="33">
         <v>20</v>
       </c>
-      <c r="F57" s="33">
+      <c r="G57" s="33">
         <v>40</v>
       </c>
-      <c r="G57" s="33">
+      <c r="H57" s="33">
         <v>30</v>
       </c>
-      <c r="H57" s="34">
+      <c r="I57" s="34">
         <v>40</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>344</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>124</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <v>21</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="D58" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="E58" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="E58" s="33">
+      <c r="F58" s="33">
         <v>25</v>
       </c>
-      <c r="F58" s="33">
+      <c r="G58" s="33">
         <v>40</v>
       </c>
-      <c r="G58" s="33">
+      <c r="H58" s="33">
         <v>22</v>
       </c>
-      <c r="H58" s="34">
+      <c r="I58" s="34">
         <v>40</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>124</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>121</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>332</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:13">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="C59" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="D59" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="E59" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="E59" s="33">
+      <c r="F59" s="33">
         <v>30</v>
       </c>
-      <c r="F59" s="33">
+      <c r="G59" s="33">
         <v>70</v>
       </c>
-      <c r="G59" s="33">
+      <c r="H59" s="33">
         <v>30</v>
       </c>
-      <c r="H59" s="34">
+      <c r="I59" s="34">
         <v>40</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>344</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>130</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>124</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <v>42</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="C60" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="D60" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="E60" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="E60" s="33">
+      <c r="F60" s="33">
         <v>35</v>
       </c>
-      <c r="F60" s="33">
+      <c r="G60" s="33">
         <v>75</v>
       </c>
-      <c r="G60" s="33">
+      <c r="H60" s="33">
         <v>30</v>
       </c>
-      <c r="H60" s="34">
+      <c r="I60" s="34">
         <v>40</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>333</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>124</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>107</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>1024</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="D61" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="E61" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E61" s="35">
+      <c r="F61" s="35">
         <v>50</v>
       </c>
-      <c r="F61" s="35">
+      <c r="G61" s="35">
         <v>90</v>
       </c>
-      <c r="G61" s="35">
+      <c r="H61" s="35">
         <v>30</v>
       </c>
-      <c r="H61" s="34">
+      <c r="I61" s="34">
         <v>40</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>333</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>130</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>344</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="7" t="s">
+    <row r="62" spans="1:13">
+      <c r="B62" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B62" s="17"/>
       <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="29"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="18"/>
       <c r="F62" s="29"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="30"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="9" t="s">
+      <c r="G62" s="29"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>1025</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="C63" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="D63" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="E63" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E63" s="33">
+      <c r="F63" s="33">
         <v>40</v>
       </c>
-      <c r="F63" s="33">
+      <c r="G63" s="33">
         <v>60</v>
       </c>
-      <c r="G63" s="33">
+      <c r="H63" s="33">
         <v>8</v>
       </c>
-      <c r="H63" s="34">
+      <c r="I63" s="34">
         <v>14</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>134</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>86</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>331</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:13">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="D64" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="E64" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E64" s="33">
+      <c r="F64" s="33">
         <v>40</v>
       </c>
-      <c r="F64" s="33">
+      <c r="G64" s="33">
         <v>70</v>
       </c>
-      <c r="G64" s="33">
+      <c r="H64" s="33">
         <v>6</v>
       </c>
-      <c r="H64" s="34">
+      <c r="I64" s="34">
         <v>15</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>91</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>134</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>346</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="16" thickBot="1">
-      <c r="A65" s="13" t="s">
+    <row r="65" spans="1:13" ht="16" thickBot="1">
+      <c r="A65">
+        <v>31</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>1026</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="D65" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="E65" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E65" s="36">
+      <c r="F65" s="36">
         <v>60</v>
       </c>
-      <c r="F65" s="36">
+      <c r="G65" s="36">
         <v>120</v>
       </c>
-      <c r="G65" s="36">
+      <c r="H65" s="36">
         <v>8</v>
       </c>
-      <c r="H65" s="34">
+      <c r="I65" s="34">
         <v>15</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>91</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>346</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>87</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:13">
+      <c r="B66" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B66" s="17"/>
       <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="29"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
       <c r="F66" s="29"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="30"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="9" t="s">
+      <c r="G66" s="29"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="B67" s="9" t="s">
         <v>1039</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="C67" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="D67" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="E67" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="E67" s="33">
+      <c r="F67" s="33">
         <v>8</v>
       </c>
-      <c r="F67" s="33">
+      <c r="G67" s="33">
         <v>15</v>
       </c>
-      <c r="G67" s="33">
+      <c r="H67" s="33">
         <v>2</v>
       </c>
-      <c r="H67" s="34">
+      <c r="I67" s="34">
         <v>8</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>337</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>138</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>347</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <v>52</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="C68" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="D68" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="E68" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="E68" s="33">
+      <c r="F68" s="33">
         <v>10</v>
       </c>
-      <c r="F68" s="33">
+      <c r="G68" s="33">
         <v>18</v>
       </c>
-      <c r="G68" s="33">
+      <c r="H68" s="33">
         <v>14</v>
       </c>
-      <c r="H68" s="34">
+      <c r="I68" s="34">
         <v>23</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>337</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>138</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>107</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="9" t="s">
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>53</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="C69" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="D69" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="E69" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="E69" s="33">
+      <c r="F69" s="33">
         <v>15</v>
       </c>
-      <c r="F69" s="33">
+      <c r="G69" s="33">
         <v>30</v>
       </c>
-      <c r="G69" s="33">
+      <c r="H69" s="33">
         <v>12</v>
       </c>
-      <c r="H69" s="34">
+      <c r="I69" s="34">
         <v>25</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>130</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>138</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>128</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>118</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>1040</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="D70" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="E70" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E70" s="35">
+      <c r="F70" s="35">
         <v>10</v>
       </c>
-      <c r="F70" s="35">
+      <c r="G70" s="35">
         <v>20</v>
       </c>
-      <c r="G70" s="35">
+      <c r="H70" s="35">
         <v>14</v>
       </c>
-      <c r="H70" s="34">
+      <c r="I70" s="34">
         <v>19</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>338</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>138</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>91</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:13">
+      <c r="B71" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B71" s="17"/>
       <c r="C71" s="17"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="29"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18"/>
       <c r="F71" s="29"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="30"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="9" t="s">
+      <c r="G71" s="29"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <v>65</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="C72" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="D72" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="E72" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E72" s="33">
+      <c r="F72" s="33">
         <v>10</v>
       </c>
-      <c r="F72" s="33">
+      <c r="G72" s="33">
         <v>20</v>
       </c>
-      <c r="G72" s="33">
+      <c r="H72" s="33">
         <v>2</v>
       </c>
-      <c r="H72" s="34">
+      <c r="I72" s="34">
         <v>4</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>136</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>91</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>138</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>62</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="C73" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="D73" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="E73" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="E73" s="33">
+      <c r="F73" s="33">
         <v>20</v>
       </c>
-      <c r="F73" s="33">
+      <c r="G73" s="33">
         <v>30</v>
       </c>
-      <c r="G73" s="33">
+      <c r="H73" s="33">
         <v>8</v>
       </c>
-      <c r="H73" s="34">
+      <c r="I73" s="34">
         <v>14</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>337</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>138</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="C74" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="D74" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="E74" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="E74" s="33">
+      <c r="F74" s="33">
         <v>20</v>
       </c>
-      <c r="F74" s="33">
+      <c r="G74" s="33">
         <v>35</v>
       </c>
-      <c r="G74" s="33">
+      <c r="H74" s="33">
         <v>5</v>
       </c>
-      <c r="H74" s="34">
+      <c r="I74" s="34">
         <v>14</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>91</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>138</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>133</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="C75" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="D75" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="E75" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="E75" s="33">
+      <c r="F75" s="33">
         <v>18</v>
       </c>
-      <c r="F75" s="33">
+      <c r="G75" s="33">
         <v>28</v>
       </c>
-      <c r="G75" s="33">
+      <c r="H75" s="33">
         <v>6</v>
       </c>
-      <c r="H75" s="34">
+      <c r="I75" s="34">
         <v>19</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>335</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>342</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>122</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="23" t="s">
+    <row r="76" spans="1:13">
+      <c r="B76" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="B76" s="24"/>
       <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="32"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="25"/>
       <c r="F76" s="32"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="30"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="9" t="s">
+      <c r="G76" s="32"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
+        <v>46</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="C77" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="D77" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="E77" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="E77" s="33">
-        <v>3</v>
-      </c>
       <c r="F77" s="33">
+        <v>3</v>
+      </c>
+      <c r="G77" s="33">
         <v>8</v>
       </c>
-      <c r="G77" s="33">
+      <c r="H77" s="33">
         <v>2</v>
       </c>
-      <c r="H77" s="34">
-        <v>3</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="I77" s="34">
+        <v>3</v>
+      </c>
+      <c r="J77" t="s">
         <v>340</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>348</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>133</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="9" t="s">
+    <row r="78" spans="1:13">
+      <c r="B78" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="C78" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="D78" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="E78" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="E78" s="33">
+      <c r="F78" s="33">
         <v>10</v>
       </c>
-      <c r="F78" s="33">
+      <c r="G78" s="33">
         <v>25</v>
       </c>
-      <c r="G78" s="33">
+      <c r="H78" s="33">
         <v>10</v>
       </c>
-      <c r="H78" s="34">
+      <c r="I78" s="34">
         <v>16</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>133</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>91</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>128</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:13">
+      <c r="B79" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="C79" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="D79" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="E79" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="E79" s="33">
+      <c r="F79" s="33">
         <v>20</v>
       </c>
-      <c r="F79" s="33">
+      <c r="G79" s="33">
         <v>25</v>
       </c>
-      <c r="G79" s="33">
+      <c r="H79" s="33">
         <v>15</v>
       </c>
-      <c r="H79" s="34">
+      <c r="I79" s="34">
         <v>22</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>130</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>107</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>342</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="9" t="s">
+    <row r="80" spans="1:13">
+      <c r="A80">
+        <v>66</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="C80" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="D80" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="E80" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="E80" s="33">
+      <c r="F80" s="33">
         <v>0</v>
       </c>
-      <c r="F80" s="33">
+      <c r="G80" s="33">
         <v>10</v>
       </c>
-      <c r="G80" s="33">
-        <v>3</v>
-      </c>
-      <c r="H80" s="34">
+      <c r="H80" s="33">
+        <v>3</v>
+      </c>
+      <c r="I80" s="34">
         <v>7</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>348</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>133</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:14">
+      <c r="A81">
+        <v>67</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="C81" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="D81" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="E81" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="E81" s="33">
+      <c r="F81" s="33">
         <v>0</v>
       </c>
-      <c r="F81" s="33">
+      <c r="G81" s="33">
         <v>10</v>
       </c>
-      <c r="G81" s="33">
-        <v>3</v>
-      </c>
-      <c r="H81" s="34">
+      <c r="H81" s="33">
+        <v>3</v>
+      </c>
+      <c r="I81" s="34">
         <v>7</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>91</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>348</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>136</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:14">
+      <c r="A82">
+        <v>68</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>1031</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="D82" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="E82" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E82" s="35">
+      <c r="F82" s="35">
         <v>0</v>
       </c>
-      <c r="F82" s="35">
+      <c r="G82" s="35">
         <v>10</v>
       </c>
-      <c r="G82" s="35">
-        <v>3</v>
-      </c>
-      <c r="H82" s="34">
+      <c r="H82" s="35">
+        <v>3</v>
+      </c>
+      <c r="I82" s="34">
         <v>7</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>133</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>347</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:14">
+      <c r="B83" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B83" s="17"/>
       <c r="C83" s="17"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="29"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="18"/>
       <c r="F83" s="29"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="30"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="9" t="s">
+      <c r="G83" s="29"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="30"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84">
+        <v>61</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="C84" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="D84" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="E84" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="E84" s="33">
+      <c r="F84" s="33">
         <v>15</v>
       </c>
-      <c r="F84" s="33">
+      <c r="G84" s="33">
         <v>30</v>
       </c>
-      <c r="G84" s="33">
+      <c r="H84" s="33">
         <v>4</v>
       </c>
-      <c r="H84" s="34">
+      <c r="I84" s="34">
         <v>7</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>91</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>86</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>138</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="9" t="s">
+    <row r="85" spans="1:14">
+      <c r="A85">
+        <v>58</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="C85" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="D85" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="E85" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="E85" s="33">
+      <c r="F85" s="33">
         <v>15</v>
       </c>
-      <c r="F85" s="33">
+      <c r="G85" s="33">
         <v>25</v>
       </c>
-      <c r="G85" s="33">
+      <c r="H85" s="33">
         <v>10</v>
       </c>
-      <c r="H85" s="34">
+      <c r="I85" s="34">
         <v>17</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>130</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>107</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="9" t="s">
+    <row r="86" spans="1:14">
+      <c r="A86">
+        <v>59</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="C86" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="D86" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="E86" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="E86" s="33">
+      <c r="F86" s="33">
         <v>20</v>
       </c>
-      <c r="F86" s="33">
+      <c r="G86" s="33">
         <v>40</v>
       </c>
-      <c r="G86" s="33">
+      <c r="H86" s="33">
         <v>4.5</v>
       </c>
-      <c r="H86" s="34">
+      <c r="I86" s="34">
         <v>7</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>91</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>138</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>133</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>114</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="9" t="s">
+    <row r="87" spans="1:14">
+      <c r="A87">
+        <v>63</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>996</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="C87" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="D87" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="E87" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="E87" s="33">
+      <c r="F87" s="33">
         <v>22</v>
       </c>
-      <c r="F87" s="33">
+      <c r="G87" s="33">
         <v>35</v>
       </c>
-      <c r="G87" s="33">
-        <v>3</v>
-      </c>
-      <c r="H87" s="34">
+      <c r="H87" s="33">
+        <v>3</v>
+      </c>
+      <c r="I87" s="34">
         <v>6</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>133</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>138</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>114</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16" thickBot="1">
-      <c r="A88" s="13" t="s">
+    <row r="88" spans="1:14" ht="16" thickBot="1">
+      <c r="A88">
+        <v>64</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="D88" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="E88" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="E88" s="36">
+      <c r="F88" s="36">
         <v>20</v>
       </c>
-      <c r="F88" s="36">
+      <c r="G88" s="36">
         <v>35</v>
       </c>
-      <c r="G88" s="36">
+      <c r="H88" s="36">
         <v>12</v>
       </c>
-      <c r="H88" s="37">
+      <c r="I88" s="37">
         <v>22</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>119</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>107</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>130</v>
       </c>
     </row>

--- a/data/Archive/beermap.xlsx
+++ b/data/Archive/beermap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="0" windowWidth="17000" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Big Style List" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="1099">
   <si>
     <t>Color</t>
   </si>
@@ -3193,12 +3193,6 @@
     <t>BreweryDB id</t>
   </si>
   <si>
-    <t>94/95</t>
-  </si>
-  <si>
-    <t>81/102?</t>
-  </si>
-  <si>
     <t>14 or 15</t>
   </si>
   <si>
@@ -3206,6 +3200,129 @@
   </si>
   <si>
     <t>115/116</t>
+  </si>
+  <si>
+    <t>66/47</t>
+  </si>
+  <si>
+    <t>48/49/50/51</t>
+  </si>
+  <si>
+    <t>Bamberg-Style Helles (Smoke) Rauchbier Lager</t>
+  </si>
+  <si>
+    <t>1.044-1.050</t>
+  </si>
+  <si>
+    <t>1.008-1.012</t>
+  </si>
+  <si>
+    <t>3.8-4.4</t>
+  </si>
+  <si>
+    <t>45/56</t>
+  </si>
+  <si>
+    <t>60/64</t>
+  </si>
+  <si>
+    <t>32/28</t>
+  </si>
+  <si>
+    <t>37/29</t>
+  </si>
+  <si>
+    <t>22/33</t>
+  </si>
+  <si>
+    <t>94/95/112/113</t>
+  </si>
+  <si>
+    <t>1.060 – 1.090</t>
+  </si>
+  <si>
+    <t>30 – 60</t>
+  </si>
+  <si>
+    <t>10 – 22</t>
+  </si>
+  <si>
+    <t>1.015 – 1.022</t>
+  </si>
+  <si>
+    <t>6 – 9</t>
+  </si>
+  <si>
+    <t>1.080 – 1.120</t>
+  </si>
+  <si>
+    <t>35 – 70</t>
+  </si>
+  <si>
+    <t>8 – 22</t>
+  </si>
+  <si>
+    <t>8 – 12</t>
+  </si>
+  <si>
+    <t>1.018 – 1.030</t>
+  </si>
+  <si>
+    <t>1.016 – 1.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 – 12</t>
+  </si>
+  <si>
+    <t>10 – 19</t>
+  </si>
+  <si>
+    <t>50 – 120</t>
+  </si>
+  <si>
+    <t>93/96</t>
+  </si>
+  <si>
+    <t>103/101</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>12-22</t>
+  </si>
+  <si>
+    <t>Classic Rauchbier</t>
+  </si>
+  <si>
+    <t>81/82/102?</t>
+  </si>
+  <si>
+    <t>54/85/86/87</t>
+  </si>
+  <si>
+    <t>40/46</t>
+  </si>
+  <si>
+    <t>25/27/74</t>
+  </si>
+  <si>
+    <t>1/3/6/10/73</t>
+  </si>
+  <si>
+    <t>78/92</t>
+  </si>
+  <si>
+    <t>117/118</t>
+  </si>
+  <si>
+    <t>75/77/106</t>
+  </si>
+  <si>
+    <t>19/38</t>
+  </si>
+  <si>
+    <t>89/100</t>
   </si>
 </sst>
 </file>
@@ -3428,7 +3545,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1393">
+  <cellStyleXfs count="1409">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4822,8 +4939,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4954,8 +5087,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1393">
+  <cellStyles count="1409">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5652,6 +5796,14 @@
     <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6348,6 +6500,14 @@
     <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6677,10 +6837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U88"/>
+  <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6744,7 +6904,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>1055</v>
+        <v>1069</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>1032</v>
@@ -6784,8 +6944,8 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4">
-        <v>93</v>
+      <c r="A4" t="s">
+        <v>1084</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>1033</v>
@@ -6866,8 +7026,8 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6">
-        <v>78</v>
+      <c r="A6" t="s">
+        <v>1094</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>1035</v>
@@ -6957,8 +7117,8 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
-        <v>75</v>
+      <c r="A9" t="s">
+        <v>1096</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>997</v>
@@ -7128,7 +7288,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>1056</v>
+        <v>1089</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>1001</v>
@@ -7177,8 +7337,8 @@
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16">
-        <v>103</v>
+      <c r="A16" t="s">
+        <v>1085</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>1002</v>
@@ -7312,8 +7472,8 @@
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20">
-        <v>89</v>
+      <c r="A20" t="s">
+        <v>1098</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>1038</v>
@@ -7561,8 +7721,8 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27">
-        <v>45</v>
+      <c r="A27" t="s">
+        <v>1064</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>71</v>
@@ -7603,7 +7763,7 @@
     </row>
     <row r="28" spans="1:13" ht="16" thickBot="1">
       <c r="A28" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>1006</v>
@@ -7787,8 +7947,8 @@
       <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34">
-        <v>3</v>
+      <c r="A34" s="4" t="s">
+        <v>1093</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>1010</v>
@@ -8069,8 +8229,8 @@
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41">
-        <v>22</v>
+      <c r="A41" t="s">
+        <v>1068</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>76</v>
@@ -8108,7 +8268,7 @@
     </row>
     <row r="42" spans="1:21" ht="16" thickBot="1">
       <c r="A42" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>1016</v>
@@ -8160,8 +8320,8 @@
       <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44">
-        <v>25</v>
+      <c r="A44" t="s">
+        <v>1092</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>1017</v>
@@ -8198,8 +8358,8 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45">
-        <v>32</v>
+      <c r="A45" t="s">
+        <v>1066</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>1018</v>
@@ -8236,8 +8396,8 @@
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46">
-        <v>37</v>
+      <c r="A46" t="s">
+        <v>1067</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>14</v>
@@ -8289,6 +8449,9 @@
       <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:21">
+      <c r="A48">
+        <v>11</v>
+      </c>
       <c r="B48" s="9" t="s">
         <v>1019</v>
       </c>
@@ -8327,6 +8490,9 @@
       </c>
     </row>
     <row r="49" spans="1:13">
+      <c r="A49">
+        <v>12</v>
+      </c>
       <c r="B49" s="9" t="s">
         <v>1020</v>
       </c>
@@ -8365,6 +8531,9 @@
       </c>
     </row>
     <row r="50" spans="1:13">
+      <c r="A50">
+        <v>14</v>
+      </c>
       <c r="B50" s="10" t="s">
         <v>1021</v>
       </c>
@@ -8450,8 +8619,8 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53">
-        <v>19</v>
+      <c r="A53" t="s">
+        <v>1097</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>7</v>
@@ -8747,7 +8916,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>1024</v>
@@ -8934,6 +9103,9 @@
       <c r="I66" s="30"/>
     </row>
     <row r="67" spans="1:13">
+      <c r="A67" t="s">
+        <v>1059</v>
+      </c>
       <c r="B67" s="9" t="s">
         <v>1039</v>
       </c>
@@ -9054,8 +9226,8 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70">
-        <v>118</v>
+      <c r="A70" t="s">
+        <v>1095</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>1040</v>
@@ -9280,8 +9452,8 @@
       <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77">
-        <v>46</v>
+      <c r="A77" t="s">
+        <v>1091</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>1028</v>
@@ -9359,6 +9531,9 @@
       </c>
     </row>
     <row r="79" spans="1:13">
+      <c r="A79">
+        <v>57</v>
+      </c>
       <c r="B79" s="9" t="s">
         <v>1029</v>
       </c>
@@ -9397,8 +9572,8 @@
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80">
-        <v>66</v>
+      <c r="A80" t="s">
+        <v>1058</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>1030</v>
@@ -9690,8 +9865,8 @@
       </c>
     </row>
     <row r="88" spans="1:14" ht="16" thickBot="1">
-      <c r="A88">
-        <v>64</v>
+      <c r="A88" t="s">
+        <v>1065</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>989</v>
@@ -9725,6 +9900,184 @@
       </c>
       <c r="L88" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89">
+        <v>54</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F89">
+        <v>18</v>
+      </c>
+      <c r="G89">
+        <v>25</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>331</v>
+      </c>
+      <c r="K89" t="s">
+        <v>343</v>
+      </c>
+      <c r="L89" t="s">
+        <v>119</v>
+      </c>
+      <c r="M89" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C90" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F90" s="57" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H90" s="58" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J90" t="s">
+        <v>343</v>
+      </c>
+      <c r="K90" t="s">
+        <v>133</v>
+      </c>
+      <c r="L90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J91" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="K91" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L91" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="M91" s="54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J92" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="K92" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L92" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="M92" s="54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J93" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="K93" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="L93" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="M93" s="54" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9742,8 +10095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/Archive/beermap.xlsx
+++ b/data/Archive/beermap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Big Style List" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5286" uniqueCount="1098">
   <si>
     <t>Color</t>
   </si>
@@ -3193,9 +3193,6 @@
     <t>BreweryDB id</t>
   </si>
   <si>
-    <t>14 or 15</t>
-  </si>
-  <si>
     <t>43/16</t>
   </si>
   <si>
@@ -3298,9 +3295,6 @@
     <t>81/82/102?</t>
   </si>
   <si>
-    <t>54/85/86/87</t>
-  </si>
-  <si>
     <t>40/46</t>
   </si>
   <si>
@@ -3323,6 +3317,9 @@
   </si>
   <si>
     <t>89/100</t>
+  </si>
+  <si>
+    <t>85/86/87</t>
   </si>
 </sst>
 </file>
@@ -6839,8 +6836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6904,7 +6901,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>1032</v>
@@ -6945,7 +6942,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>1033</v>
@@ -7027,7 +7024,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>1035</v>
@@ -7118,7 +7115,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>997</v>
@@ -7288,7 +7285,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>1001</v>
@@ -7338,7 +7335,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>1002</v>
@@ -7473,7 +7470,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>1038</v>
@@ -7722,7 +7719,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>71</v>
@@ -7763,7 +7760,7 @@
     </row>
     <row r="28" spans="1:13" ht="16" thickBot="1">
       <c r="A28" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>1006</v>
@@ -7948,7 +7945,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="4" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>1010</v>
@@ -8230,7 +8227,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>76</v>
@@ -8267,8 +8264,8 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="16" thickBot="1">
-      <c r="A42" t="s">
-        <v>1055</v>
+      <c r="A42">
+        <v>15</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>1016</v>
@@ -8321,7 +8318,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>1017</v>
@@ -8359,7 +8356,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>1018</v>
@@ -8397,7 +8394,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>14</v>
@@ -8620,7 +8617,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>7</v>
@@ -8916,7 +8913,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>1024</v>
@@ -9104,7 +9101,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>1039</v>
@@ -9227,7 +9224,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>1040</v>
@@ -9453,7 +9450,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>1028</v>
@@ -9573,7 +9570,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>1030</v>
@@ -9866,7 +9863,7 @@
     </row>
     <row r="88" spans="1:14" ht="16" thickBot="1">
       <c r="A88" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>989</v>
@@ -9907,16 +9904,16 @@
         <v>54</v>
       </c>
       <c r="B89" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C89" t="s">
         <v>1060</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>1061</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>1062</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1063</v>
       </c>
       <c r="F89">
         <v>18</v>
@@ -9945,10 +9942,10 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C90" s="55" t="s">
         <v>194</v>
@@ -9960,10 +9957,10 @@
         <v>180</v>
       </c>
       <c r="F90" s="57" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H90" s="58" t="s">
         <v>1086</v>
-      </c>
-      <c r="H90" s="58" t="s">
-        <v>1087</v>
       </c>
       <c r="J90" t="s">
         <v>343</v>
@@ -9983,19 +9980,19 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F91" t="s">
         <v>1070</v>
       </c>
-      <c r="D91" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>1071</v>
-      </c>
-      <c r="H91" t="s">
-        <v>1072</v>
       </c>
       <c r="J91" s="54" t="s">
         <v>119</v>
@@ -10018,19 +10015,19 @@
         <v>51</v>
       </c>
       <c r="C92" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F92" t="s">
         <v>1075</v>
       </c>
-      <c r="D92" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="H92" t="s">
         <v>1076</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1077</v>
       </c>
       <c r="J92" s="54" t="s">
         <v>133</v>
@@ -10053,19 +10050,19 @@
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D93" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E93" t="s">
         <v>1080</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H93" t="s">
         <v>1081</v>
-      </c>
-      <c r="F93" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H93" t="s">
-        <v>1082</v>
       </c>
       <c r="J93" s="54" t="s">
         <v>87</v>
@@ -10095,7 +10092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
